--- a/ExampleTrust-grants-metadata.xlsx
+++ b/ExampleTrust-grants-metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="grants" sheetId="1" state="visible" r:id="rId2"/>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">Modified</t>
   </si>
   <si>
-    <t xml:space="preserve">8/16/2018 13:58:49</t>
+    <t xml:space="preserve">2018-08-15T00:00:00Z</t>
   </si>
   <si>
     <t xml:space="preserve">License</t>
@@ -647,37 +647,38 @@
   </sheetPr>
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8258928571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2276785714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8348214285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.91517857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4196428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4107142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2366071428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.78125"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.13392857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2633928571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3169642857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.1651785714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.2366071428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.7901785714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5267857142857"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.92410714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.84375"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="48.3080357142857"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.5982142857143"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.2991071428571"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.8125"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="57.0491071428572"/>
-    <col collapsed="false" hidden="false" max="37" min="24" style="0" width="8.38839285714286"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="19.2544642857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.38839285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.59375"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9910714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5982142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.67857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1830357142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1741071428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5446428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.01785714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.90625"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.0803571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.8125"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.8839285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.4330357142857"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.2901785714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.50446428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.6875"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="47.71875"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.3616071428571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.0625"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.6919642857143"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="56.34375"/>
+    <col collapsed="false" hidden="false" max="37" min="24" style="0" width="8.26785714285714"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="19.0178571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="8.26785714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,14 +1322,15 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7008928571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.5089285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3883928571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9553571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50446428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,7 +1421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>130</v>
       </c>
